--- a/testcasedata.xlsx
+++ b/testcasedata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7050"/>
+    <workbookView windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RestAssured" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>testcases</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>gopal</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>addBook</t>
+  </si>
+  <si>
+    <t>rest api automation</t>
+  </si>
+  <si>
+    <t>vhshj</t>
+  </si>
+  <si>
+    <t>akshay gaikwad</t>
   </si>
 </sst>
 </file>
@@ -86,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,14 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,14 +156,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +167,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -182,8 +198,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +254,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,52 +281,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,18 +511,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +550,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -533,176 +574,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -972,13 +996,17 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="18.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="21.0909090909091" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="12.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,14 +1101,53 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="22.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>64453</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/testcasedata.xlsx
+++ b/testcasedata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>testcases</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>rest api automation</t>
-  </si>
-  <si>
-    <t>vhshj</t>
   </si>
   <si>
     <t>akshay gaikwad</t>
@@ -110,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -132,30 +129,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,15 +178,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -190,40 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +240,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -245,38 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +479,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,26 +523,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,182 +566,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1101,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1138,13 +1135,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1996</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2">
-        <v>64453</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
